--- a/output/table_estimates_education_Insurance.xlsx
+++ b/output/table_estimates_education_Insurance.xlsx
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.1467461259737629</v>
+        <v>-0.1011516356140539</v>
       </c>
       <c r="C2">
-        <v>0.03239386782437029</v>
+        <v>0.03233184771708904</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.4735232931655369</v>
+        <v>-0.4903572525929947</v>
       </c>
       <c r="C3">
-        <v>0.03394497690229777</v>
+        <v>0.03390767677189618</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.2262319549612398</v>
+        <v>-0.2237595667790513</v>
       </c>
       <c r="C4">
-        <v>0.02488636630615608</v>
+        <v>0.02483407682393292</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.01765723141643343</v>
+        <v>-0.01182125054484476</v>
       </c>
       <c r="C5">
-        <v>0.01747864672979267</v>
+        <v>0.01769001249801265</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.07730374625494926</v>
+        <v>-0.09238198640556337</v>
       </c>
       <c r="C6">
-        <v>0.01737062760963885</v>
+        <v>0.017345362440889</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.08557215761171899</v>
+        <v>0.0770447723660299</v>
       </c>
       <c r="C7">
-        <v>0.02522564410568056</v>
+        <v>0.02549601869884641</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.1491648636598392</v>
+        <v>-0.199749841607068</v>
       </c>
       <c r="C8">
-        <v>0.0369167743430692</v>
+        <v>0.03667524090217805</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0002755190301733716</v>
+        <v>0.05814650631074557</v>
       </c>
       <c r="C9">
-        <v>0.03304542938832936</v>
+        <v>0.03257684372322617</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.05535779166966292</v>
+        <v>0.04484755022431772</v>
       </c>
       <c r="C10">
-        <v>0.01812265904616627</v>
+        <v>0.01782506729805204</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.01787765085565494</v>
+        <v>-0.01325694644454732</v>
       </c>
       <c r="C11">
-        <v>0.003034535773523989</v>
+        <v>0.003326063285594611</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.05914912177974344</v>
+        <v>-0.06077935429452556</v>
       </c>
       <c r="C12">
-        <v>0.02828724670699181</v>
+        <v>0.02882122818786087</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.31639112831671</v>
+        <v>1.308440622741827</v>
       </c>
       <c r="C13">
-        <v>0.03760360025361126</v>
+        <v>0.03772006684892277</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5125046208686915</v>
+        <v>0.4914601408044686</v>
       </c>
       <c r="C14">
-        <v>0.02506968795356516</v>
+        <v>0.02525630492879556</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -647,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.6254471287182282</v>
+        <v>-0.6170541016623952</v>
       </c>
       <c r="C15">
-        <v>0.01042001366570022</v>
+        <v>0.01068328868957334</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.1206160314931582</v>
+        <v>0.1079556598677768</v>
       </c>
       <c r="C16">
-        <v>0.1839717052590186</v>
+        <v>0.1807518574050438</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-3.638676165706182</v>
+        <v>-3.659137005100276</v>
       </c>
       <c r="C17">
-        <v>0.02929665094549214</v>
+        <v>0.02974236560496941</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-1.605936295868689</v>
+        <v>-1.604842974777304</v>
       </c>
       <c r="C18">
-        <v>0.03645044466415356</v>
+        <v>0.03951596771154367</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.30511464021544</v>
+        <v>2.313777539320881</v>
       </c>
       <c r="C19">
-        <v>0.2015805137627205</v>
+        <v>0.1982599570837298</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -728,10 +728,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.7200857195484629</v>
+        <v>0.7761437199416601</v>
       </c>
       <c r="C21">
-        <v>0.1174440730863836</v>
+        <v>0.1164812583597713</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -742,10 +742,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-1.036389333601103</v>
+        <v>-1.029109979531125</v>
       </c>
       <c r="C22">
-        <v>0.1233464419897813</v>
+        <v>0.1222065679003904</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
